--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -521,6 +524,32 @@
         <v>72</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>347</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>16-02-2019</t>
+  </si>
+  <si>
+    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -550,6 +553,32 @@
         <v>75</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>346</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -38,37 +43,24 @@
   </si>
   <si>
     <t>Page Impressions Organic</t>
-  </si>
-  <si>
-    <t>13-02-2019</t>
-  </si>
-  <si>
-    <t>14-02-2019</t>
-  </si>
-  <si>
-    <t>16-02-2019</t>
-  </si>
-  <si>
-    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,16 +76,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -381,20 +374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -424,162 +413,167 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43507</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>348</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43508</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>347</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>347</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>61</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>72</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="1">
+        <v>43512</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>347</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="1">
+        <v>43515</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>346</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -43,24 +38,28 @@
   </si>
   <si>
     <t>Page Impressions Organic</t>
+  </si>
+  <si>
+    <t>23-02-2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,17 +75,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -374,16 +372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -413,167 +415,188 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>348</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>347</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>347</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>61</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>347</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>72</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>347</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>346</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>75</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>75</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>346</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>23-02-2019</t>
+  </si>
+  <si>
+    <t>24-02-2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -596,6 +599,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>24-02-2019</t>
+  </si>
+  <si>
+    <t>25-02-2019</t>
+  </si>
+  <si>
+    <t>03-03-2019</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -625,6 +631,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>346</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>346</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -31,44 +36,31 @@
     <t>Page Fan Adds Non Paid</t>
   </si>
   <si>
-    <t xml:space="preserve">Page Impressions </t>
-  </si>
-  <si>
     <t>Page Impressions Paid</t>
   </si>
   <si>
     <t>Page Impressions Organic</t>
   </si>
   <si>
-    <t>23-02-2019</t>
-  </si>
-  <si>
-    <t>24-02-2019</t>
-  </si>
-  <si>
-    <t>25-02-2019</t>
-  </si>
-  <si>
-    <t>03-03-2019</t>
+    <t>Page Impressions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,16 +76,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -381,20 +374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -414,276 +403,281 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43507</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>348</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43508</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>347</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43509</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>347</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>61</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43510</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>72</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43512</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>347</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43515</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>346</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8" s="1">
+        <v>43519</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>346</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>346</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>346</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>346</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -36,31 +31,35 @@
     <t>Page Fan Adds Non Paid</t>
   </si>
   <si>
+    <t>Page Impressions</t>
+  </si>
+  <si>
     <t>Page Impressions Paid</t>
   </si>
   <si>
     <t>Page Impressions Organic</t>
   </si>
   <si>
-    <t>Page Impressions</t>
+    <t>5/3/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,17 +75,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -374,16 +372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -403,281 +405,302 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>348</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>347</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>347</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>61</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>347</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>72</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>347</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>346</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>75</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>346</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>346</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>346</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>346</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>346</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>5/3/2019</t>
+  </si>
+  <si>
+    <t>6/3/2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -700,6 +703,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>345</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>5/3/2019</t>
+  </si>
+  <si>
+    <t>10/3/2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -700,6 +703,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>345</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -39,30 +44,23 @@
   <si>
     <t>Page Impressions Organic</t>
   </si>
-  <si>
-    <t>5/3/2019</t>
-  </si>
-  <si>
-    <t>6/3/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,16 +76,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -375,20 +374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -418,318 +413,349 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43507</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>348</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43508</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>347</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43509</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>347</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>61</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43510</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>72</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43512</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>347</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43515</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>346</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43519</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>346</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43520</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>346</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>346</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>43527</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>346</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>346</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>345</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>345</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -43,24 +38,28 @@
   </si>
   <si>
     <t>Page Impressions Organic</t>
+  </si>
+  <si>
+    <t>12/3/19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,17 +75,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -374,16 +372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -413,349 +415,370 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>348</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>347</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>347</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>61</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>347</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>72</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>347</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>346</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>75</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>346</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>346</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>346</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>346</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43529</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>346</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43530</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>345</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43535</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>345</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>86</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>86</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>345</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>12/3/19</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:H14"/>
@@ -778,6 +781,32 @@
         <v>86</v>
       </c>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>345</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>86</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
+    <workbookView xWindow="12160" yWindow="2280" windowWidth="29640" windowHeight="16780"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -39,30 +44,46 @@
   <si>
     <t>Page Impressions Organic</t>
   </si>
-  <si>
-    <t>12/3/19</t>
-  </si>
-  <si>
-    <t>13/03/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,17 +98,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -375,20 +439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -418,396 +481,844 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43507</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>348</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43508</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>347</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43509</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>347</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>61</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43510</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>72</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43512</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>347</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43515</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>346</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
+        <v>43516</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>346</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>346</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>43518</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>346</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>43519</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>346</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
         <v>43520</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
         <v>346</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
         <v>43521</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>346</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43522</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>346</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>346</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>346</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>346</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>43526</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>346</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
         <v>43527</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>345</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>55</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" s="3">
         <v>346</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
         <v>43529</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
         <v>346</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
         <v>43530</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>345</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>345</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>345</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>345</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>345</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
         <v>43535</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>345</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>86</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>345</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>345</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>345</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>86</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>345</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>86</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>86</v>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>345</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>345</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -98,28 +98,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -127,27 +109,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1312,6 +1276,32 @@
         <v>75</v>
       </c>
     </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>345</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1302,6 +1302,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>345</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1328,6 +1328,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>345</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>74</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1354,6 +1354,32 @@
         <v>74</v>
       </c>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>345</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1380,6 +1380,32 @@
         <v>78</v>
       </c>
     </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>345</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>78</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1406,6 +1406,32 @@
         <v>78</v>
       </c>
     </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>345</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1432,6 +1432,32 @@
         <v>78</v>
       </c>
     </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>349</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1267</v>
+      </c>
+      <c r="G40">
+        <v>1162</v>
+      </c>
+      <c r="H40">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -1456,6 +1456,84 @@
       </c>
       <c r="H40">
         <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>349</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1267</v>
+      </c>
+      <c r="G41">
+        <v>1162</v>
+      </c>
+      <c r="H41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B42">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>364</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>1823</v>
+      </c>
+      <c r="G42">
+        <v>1664</v>
+      </c>
+      <c r="H42">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B43">
+        <v>208</v>
+      </c>
+      <c r="C43">
+        <v>437</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>3532</v>
+      </c>
+      <c r="G43">
+        <v>2001</v>
+      </c>
+      <c r="H43">
+        <v>1641</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="2280" windowWidth="29640" windowHeight="16780"/>
   </bookViews>
@@ -121,11 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -414,21 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>43507</v>
       </c>
@@ -480,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>43508</v>
       </c>
@@ -506,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>43509</v>
       </c>
@@ -532,7 +522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>43510</v>
       </c>
@@ -558,7 +548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>43512</v>
       </c>
@@ -584,7 +574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>43515</v>
       </c>
@@ -610,7 +600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>43516</v>
       </c>
@@ -636,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>43517</v>
       </c>
@@ -662,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>43518</v>
       </c>
@@ -688,7 +678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>43519</v>
       </c>
@@ -714,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>43520</v>
       </c>
@@ -740,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>43521</v>
       </c>
@@ -766,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -792,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>43523</v>
       </c>
@@ -818,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>43524</v>
       </c>
@@ -844,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>43525</v>
       </c>
@@ -870,7 +860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>43526</v>
       </c>
@@ -896,7 +886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>43527</v>
       </c>
@@ -922,7 +912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>43528</v>
       </c>
@@ -948,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>43529</v>
       </c>
@@ -974,7 +964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>43530</v>
       </c>
@@ -1000,7 +990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -1052,7 +1042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -1078,7 +1068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -1104,7 +1094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -1130,7 +1120,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -1156,7 +1146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -1182,7 +1172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -1208,7 +1198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -1234,7 +1224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -1260,7 +1250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -1286,7 +1276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -1312,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -1338,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -1364,7 +1354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -1390,7 +1380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -1416,7 +1406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -1442,7 +1432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -1468,7 +1458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -1494,7 +1484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -1520,7 +1510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -1546,7 +1536,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -1572,7 +1562,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -1596,10 +1586,41 @@
       </c>
       <c r="H45">
         <v>2580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B46">
+        <v>243</v>
+      </c>
+      <c r="C46">
+        <v>468</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>3854</v>
+      </c>
+      <c r="G46">
+        <v>1277</v>
+      </c>
+      <c r="H46">
+        <v>2685</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8760" yWindow="2280" windowWidth="29640" windowHeight="16780"/>
   </bookViews>
@@ -116,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,21 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43507</v>
       </c>
@@ -470,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43508</v>
       </c>
@@ -496,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43509</v>
       </c>
@@ -522,7 +532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43510</v>
       </c>
@@ -548,7 +558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43512</v>
       </c>
@@ -574,7 +584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43515</v>
       </c>
@@ -600,7 +610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43516</v>
       </c>
@@ -626,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43517</v>
       </c>
@@ -652,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43518</v>
       </c>
@@ -678,7 +688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43519</v>
       </c>
@@ -704,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43520</v>
       </c>
@@ -730,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43521</v>
       </c>
@@ -756,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -782,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43523</v>
       </c>
@@ -808,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43524</v>
       </c>
@@ -834,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43525</v>
       </c>
@@ -860,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43526</v>
       </c>
@@ -886,7 +896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43527</v>
       </c>
@@ -912,7 +922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43528</v>
       </c>
@@ -938,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43529</v>
       </c>
@@ -964,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43530</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -1068,7 +1078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -1276,7 +1286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43561</v>
       </c>
@@ -1612,15 +1622,62 @@
       </c>
       <c r="H46">
         <v>2685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B47">
+        <v>250</v>
+      </c>
+      <c r="C47">
+        <v>470</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3854</v>
+      </c>
+      <c r="G47">
+        <v>1277</v>
+      </c>
+      <c r="H47">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B48">
+        <v>265</v>
+      </c>
+      <c r="C48">
+        <v>473</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>3893</v>
+      </c>
+      <c r="G48">
+        <v>1277</v>
+      </c>
+      <c r="H48">
+        <v>2738</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,6 +1676,32 @@
         <v>2738</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B49">
+        <v>214</v>
+      </c>
+      <c r="C49">
+        <v>472</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3407</v>
+      </c>
+      <c r="G49">
+        <v>843</v>
+      </c>
+      <c r="H49">
+        <v>2652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,6 +1702,32 @@
         <v>2652</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B50">
+        <v>81</v>
+      </c>
+      <c r="C50">
+        <v>472</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1243</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1728,6 +1728,84 @@
         <v>1243</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>472</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>642</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>472</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>642</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B53">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>477</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>408</v>
+      </c>
+      <c r="G53">
+        <v>129</v>
+      </c>
+      <c r="H53">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="B54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1806,6 +1806,32 @@
         <v>288</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>477</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>463</v>
+      </c>
+      <c r="G54">
+        <v>225</v>
+      </c>
+      <c r="H54">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B54" sqref="A54:XFD54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1832,6 +1832,32 @@
         <v>252</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>477</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>480</v>
+      </c>
+      <c r="G55">
+        <v>225</v>
+      </c>
+      <c r="H55">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,6 +1858,32 @@
         <v>272</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>477</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>515</v>
+      </c>
+      <c r="G56">
+        <v>225</v>
+      </c>
+      <c r="H56">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1884,6 +1884,32 @@
         <v>303</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>477</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>525</v>
+      </c>
+      <c r="G57">
+        <v>225</v>
+      </c>
+      <c r="H57">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="2280" windowWidth="29640" windowHeight="16780"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1910,6 +1910,110 @@
         <v>313</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>478</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>522</v>
+      </c>
+      <c r="G58">
+        <v>225</v>
+      </c>
+      <c r="H58">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>478</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>522</v>
+      </c>
+      <c r="G59">
+        <v>225</v>
+      </c>
+      <c r="H59">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B60">
+        <v>135</v>
+      </c>
+      <c r="C60">
+        <v>503</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>967</v>
+      </c>
+      <c r="G60">
+        <v>298</v>
+      </c>
+      <c r="H60">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B61">
+        <v>172</v>
+      </c>
+      <c r="C61">
+        <v>524</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>1668</v>
+      </c>
+      <c r="G61">
+        <v>406</v>
+      </c>
+      <c r="H61">
+        <v>1267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2014,6 +2014,32 @@
         <v>1267</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B62">
+        <v>205</v>
+      </c>
+      <c r="C62">
+        <v>543</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>2279</v>
+      </c>
+      <c r="G62">
+        <v>604</v>
+      </c>
+      <c r="H62">
+        <v>1686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2040,6 +2040,32 @@
         <v>1686</v>
       </c>
     </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B63">
+        <v>234</v>
+      </c>
+      <c r="C63">
+        <v>567</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>2476</v>
+      </c>
+      <c r="G63">
+        <v>781</v>
+      </c>
+      <c r="H63">
+        <v>1987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>228</v>
       </c>
       <c r="C44">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>43578</v>
       </c>
       <c r="B63">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C63">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="D63">
         <v>1</v>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2066,6 +2066,32 @@
         <v>1987</v>
       </c>
     </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B64">
+        <v>219</v>
+      </c>
+      <c r="C64">
+        <v>592</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>2587</v>
+      </c>
+      <c r="G64">
+        <v>638</v>
+      </c>
+      <c r="H64">
+        <v>1972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Info.xlsx
+++ b/excels/lite/lite-Page-Info.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2222,6 +2222,32 @@
         <v>2204</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B70">
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>620</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2484</v>
+      </c>
+      <c r="G70">
+        <v>417</v>
+      </c>
+      <c r="H70">
+        <v>2036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
